--- a/medicine/Psychotrope/Paderborner_Brauerei/Paderborner_Brauerei.xlsx
+++ b/medicine/Psychotrope/Paderborner_Brauerei/Paderborner_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paderborner Brauerei est une brasserie à Paderborn.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie moderne est fondée en 1852. Dans les années 1930, elle rachète notamment la brasserie de la vieille ville de Warburg. En 1982, on inaugure un nouveau lieu de production. En 1990, la brasserie est rachetée par le groupe Warsteiner. La marque Paderborner Bier appartient en 2011 à Haus Cramer GmbH &amp; Co. KG.
 </t>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paderborner Pilsener
 Paderborner Export
